--- a/po forecast comparison/B0CTNXBRJV_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0CTNXBRJV_sales_po_comparison.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales vs PO" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Growth" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volume Insights" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prediction Info" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,536 +453,1126 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Order Week</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
+        <v>45326</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>45320</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
+        <v>45333</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>45327</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>108</v>
+      <c r="D3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45334</v>
+        <v>45340</v>
       </c>
       <c r="B4" t="n">
         <v>10</v>
       </c>
-      <c r="C4" t="n">
-        <v>90</v>
+      <c r="C4" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45341</v>
+        <v>45347</v>
       </c>
       <c r="B5" t="n">
         <v>20</v>
       </c>
-      <c r="C5" t="n">
-        <v>90</v>
+      <c r="C5" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45348</v>
+        <v>45354</v>
       </c>
       <c r="B6" t="n">
         <v>24</v>
       </c>
-      <c r="C6" t="n">
-        <v>198</v>
+      <c r="C6" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45355</v>
+        <v>45361</v>
       </c>
       <c r="B7" t="n">
         <v>26</v>
       </c>
-      <c r="C7" t="n">
-        <v>204</v>
+      <c r="C7" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45362</v>
+        <v>45368</v>
       </c>
       <c r="B8" t="n">
         <v>29</v>
       </c>
-      <c r="C8" t="n">
-        <v>60</v>
+      <c r="C8" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45369</v>
+        <v>45375</v>
       </c>
       <c r="B9" t="n">
         <v>51</v>
       </c>
-      <c r="C9" t="n">
-        <v>54</v>
+      <c r="C9" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45376</v>
+        <v>45382</v>
       </c>
       <c r="B10" t="n">
         <v>51</v>
       </c>
-      <c r="C10" t="n">
-        <v>84</v>
+      <c r="C10" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45383</v>
+        <v>45389</v>
       </c>
       <c r="B11" t="n">
         <v>66</v>
       </c>
-      <c r="C11" t="n">
-        <v>96</v>
+      <c r="C11" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45390</v>
+        <v>45396</v>
       </c>
       <c r="B12" t="n">
         <v>45</v>
       </c>
-      <c r="C12" t="n">
-        <v>444</v>
+      <c r="C12" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45397</v>
+        <v>45403</v>
       </c>
       <c r="B13" t="n">
         <v>32</v>
       </c>
-      <c r="C13" t="n">
-        <v>36</v>
+      <c r="C13" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45404</v>
+        <v>45410</v>
       </c>
       <c r="B14" t="n">
         <v>80</v>
       </c>
-      <c r="C14" t="n">
-        <v>60</v>
+      <c r="C14" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45411</v>
+        <v>45417</v>
       </c>
       <c r="B15" t="n">
         <v>63</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="D15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45418</v>
+        <v>45424</v>
       </c>
       <c r="B16" t="n">
         <v>58</v>
       </c>
-      <c r="C16" t="n">
-        <v>48</v>
+      <c r="C16" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45425</v>
+        <v>45431</v>
       </c>
       <c r="B17" t="n">
         <v>53</v>
       </c>
-      <c r="C17" t="n">
-        <v>132</v>
+      <c r="C17" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45432</v>
+        <v>45438</v>
       </c>
       <c r="B18" t="n">
         <v>51</v>
       </c>
-      <c r="C18" t="n">
-        <v>48</v>
+      <c r="C18" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45439</v>
+        <v>45445</v>
       </c>
       <c r="B19" t="n">
         <v>38</v>
       </c>
-      <c r="C19" t="n">
-        <v>84</v>
+      <c r="C19" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45446</v>
+        <v>45452</v>
       </c>
       <c r="B20" t="n">
         <v>46</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="D20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45453</v>
+        <v>45459</v>
       </c>
       <c r="B21" t="n">
         <v>50</v>
       </c>
-      <c r="C21" t="n">
-        <v>300</v>
+      <c r="C21" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45460</v>
+        <v>45466</v>
       </c>
       <c r="B22" t="n">
         <v>46</v>
       </c>
-      <c r="C22" t="n">
-        <v>36</v>
+      <c r="C22" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45467</v>
+        <v>45473</v>
       </c>
       <c r="B23" t="n">
         <v>36</v>
       </c>
-      <c r="C23" t="n">
-        <v>120</v>
+      <c r="C23" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45474</v>
+        <v>45480</v>
       </c>
       <c r="B24" t="n">
         <v>59</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="D24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45481</v>
+        <v>45487</v>
       </c>
       <c r="B25" t="n">
         <v>99</v>
       </c>
-      <c r="C25" t="n">
-        <v>12</v>
+      <c r="C25" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45488</v>
+        <v>45494</v>
       </c>
       <c r="B26" t="n">
         <v>47</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="D26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45495</v>
+        <v>45501</v>
       </c>
       <c r="B27" t="n">
         <v>10</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="D27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45502</v>
+        <v>45508</v>
       </c>
       <c r="B28" t="n">
         <v>6</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="D28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45509</v>
+        <v>45515</v>
       </c>
       <c r="B29" t="n">
         <v>7</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="D29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45516</v>
+        <v>45522</v>
       </c>
       <c r="B30" t="n">
         <v>2</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="D30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45523</v>
+        <v>45529</v>
       </c>
       <c r="B31" t="n">
         <v>25</v>
       </c>
-      <c r="C31" t="n">
-        <v>312</v>
+      <c r="C31" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2" t="n">
         <v>45530</v>
       </c>
-      <c r="B32" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45537</v>
+        <v>45543</v>
       </c>
       <c r="B33" t="n">
         <v>2</v>
       </c>
-      <c r="C33" t="n">
-        <v>120</v>
+      <c r="C33" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45544</v>
+        <v>45550</v>
       </c>
       <c r="B34" t="n">
         <v>6</v>
       </c>
-      <c r="C34" t="n">
-        <v>408</v>
+      <c r="C34" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45551</v>
+        <v>45557</v>
       </c>
       <c r="B35" t="n">
         <v>10</v>
       </c>
-      <c r="C35" t="n">
-        <v>480</v>
+      <c r="C35" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45558</v>
+        <v>45564</v>
       </c>
       <c r="B36" t="n">
         <v>22</v>
       </c>
-      <c r="C36" t="n">
-        <v>252</v>
+      <c r="C36" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45565</v>
+        <v>45571</v>
       </c>
       <c r="B37" t="n">
         <v>47</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="D37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45572</v>
+        <v>45578</v>
       </c>
       <c r="B38" t="n">
         <v>77</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="D38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45579</v>
+        <v>45585</v>
       </c>
       <c r="B39" t="n">
         <v>34</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="D39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="B40" t="n">
         <v>32</v>
       </c>
-      <c r="C40" t="n">
-        <v>300</v>
+      <c r="C40" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45593</v>
+        <v>45599</v>
       </c>
       <c r="B41" t="n">
         <v>51</v>
       </c>
-      <c r="C41" t="n">
-        <v>168</v>
+      <c r="C41" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="B42" t="n">
         <v>44</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="D42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45607</v>
+        <v>45613</v>
       </c>
       <c r="B43" t="n">
         <v>70</v>
       </c>
-      <c r="C43" t="n">
-        <v>396</v>
+      <c r="C43" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45614</v>
+        <v>45620</v>
       </c>
       <c r="B44" t="n">
         <v>48</v>
       </c>
-      <c r="C44" t="n">
-        <v>96</v>
+      <c r="C44" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="B45" t="n">
         <v>40</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="D45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45628</v>
+        <v>45634</v>
       </c>
       <c r="B46" t="n">
         <v>77</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="D46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45635</v>
+        <v>45641</v>
       </c>
       <c r="B47" t="n">
         <v>49</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="D47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45642</v>
+        <v>45648</v>
       </c>
       <c r="B48" t="n">
         <v>53</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="D48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45649</v>
+        <v>45655</v>
       </c>
       <c r="B49" t="n">
         <v>29</v>
       </c>
-      <c r="C49" t="n">
-        <v>0</v>
+      <c r="C49" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Requested_Qty</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Growth%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="B2" t="n">
+        <v>108</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="B3" t="n">
+        <v>90</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-16.66666666666666</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="B4" t="n">
+        <v>90</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="B5" t="n">
+        <v>198</v>
+      </c>
+      <c r="C5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="B6" t="n">
+        <v>204</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.030303030303028</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="B7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-70.58823529411764</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B8" t="n">
+        <v>54</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-9.999999999999998</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="B9" t="n">
+        <v>84</v>
+      </c>
+      <c r="C9" t="n">
+        <v>55.55555555555556</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B10" t="n">
+        <v>96</v>
+      </c>
+      <c r="C10" t="n">
+        <v>14.28571428571428</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B11" t="n">
+        <v>444</v>
+      </c>
+      <c r="C11" t="n">
+        <v>362.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B12" t="n">
+        <v>36</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-91.89189189189189</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C13" t="n">
+        <v>66.66666666666667</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="B14" t="n">
+        <v>48</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B15" t="n">
+        <v>132</v>
+      </c>
+      <c r="C15" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B16" t="n">
+        <v>48</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-63.63636363636363</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="B17" t="n">
+        <v>84</v>
+      </c>
+      <c r="C17" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B18" t="n">
+        <v>300</v>
+      </c>
+      <c r="C18" t="n">
+        <v>257.1428571428572</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B19" t="n">
+        <v>36</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B20" t="n">
+        <v>120</v>
+      </c>
+      <c r="C20" t="n">
+        <v>233.3333333333333</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B21" t="n">
+        <v>12</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B22" t="n">
+        <v>312</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B23" t="n">
+        <v>120</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-61.53846153846154</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B24" t="n">
+        <v>408</v>
+      </c>
+      <c r="C24" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B25" t="n">
+        <v>480</v>
+      </c>
+      <c r="C25" t="n">
+        <v>17.64705882352942</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B26" t="n">
+        <v>252</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-47.5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B27" t="n">
+        <v>300</v>
+      </c>
+      <c r="C27" t="n">
+        <v>19.04761904761905</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B28" t="n">
+        <v>168</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-43.99999999999999</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B29" t="n">
+        <v>396</v>
+      </c>
+      <c r="C29" t="n">
+        <v>135.7142857142857</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B30" t="n">
+        <v>96</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-75.75757575757575</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Total_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Average_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Max_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Min_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4836</v>
+      </c>
+      <c r="B2" t="n">
+        <v>166.7586206896552</v>
+      </c>
+      <c r="C2" t="n">
+        <v>480</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Predicted_Next_Week_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>263.320197044335</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B0CTNXBRJV_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0CTNXBRJV_sales_po_comparison.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,684 +453,535 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Order Week</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45326</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>45320</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45333</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>45327</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
+      <c r="C3" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45340</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>45334</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
+      <c r="C4" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45347</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>20</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>45341</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
+      <c r="C5" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45354</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>24</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>45348</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
+      <c r="C6" t="n">
+        <v>198</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45361</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>26</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>45355</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
+      <c r="C7" t="n">
+        <v>204</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45368</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>29</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>45362</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
+      <c r="C8" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45375</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>51</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
+      <c r="C9" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45382</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>51</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
+      <c r="C10" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45389</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>66</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>45383</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
+      <c r="C11" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45396</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>45</v>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>45390</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
+      <c r="C12" t="n">
+        <v>444</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45403</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>32</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>45397</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
+      <c r="C13" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45410</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>80</v>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>45404</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
+      <c r="C14" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45417</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>63</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>45411</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="C15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45424</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>58</v>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>45418</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
+      <c r="C16" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45431</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>53</v>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>45425</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="C17" t="n">
+        <v>132</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45438</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>51</v>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>45432</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
+      <c r="C18" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45445</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>38</v>
       </c>
-      <c r="C19" s="2" t="n">
-        <v>45439</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
+      <c r="C19" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45452</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>46</v>
       </c>
-      <c r="C20" s="2" t="n">
-        <v>45446</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="C20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45459</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>50</v>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>45453</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
+      <c r="C21" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45466</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>46</v>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>45460</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
+      <c r="C22" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45473</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>36</v>
       </c>
-      <c r="C23" s="2" t="n">
-        <v>45467</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
+      <c r="C23" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45480</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B24" t="n">
         <v>59</v>
       </c>
-      <c r="C24" s="2" t="n">
-        <v>45474</v>
-      </c>
-      <c r="D24" t="n">
+      <c r="C24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45487</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B25" t="n">
         <v>99</v>
       </c>
-      <c r="C25" s="2" t="n">
-        <v>45481</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
+      <c r="C25" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45494</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B26" t="n">
         <v>47</v>
       </c>
-      <c r="C26" s="2" t="n">
-        <v>45488</v>
-      </c>
-      <c r="D26" t="n">
+      <c r="C26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45501</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B27" t="n">
         <v>10</v>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>45495</v>
-      </c>
-      <c r="D27" t="n">
+      <c r="C27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45508</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B28" t="n">
         <v>6</v>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>45502</v>
-      </c>
-      <c r="D28" t="n">
+      <c r="C28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45515</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B29" t="n">
         <v>7</v>
       </c>
-      <c r="C29" s="2" t="n">
-        <v>45509</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="C29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45522</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B30" t="n">
         <v>2</v>
       </c>
-      <c r="C30" s="2" t="n">
-        <v>45516</v>
-      </c>
-      <c r="D30" t="n">
+      <c r="C30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45529</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B31" t="n">
         <v>25</v>
       </c>
-      <c r="C31" s="2" t="n">
-        <v>45523</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
+      <c r="C31" t="n">
+        <v>312</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45536</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
-      <c r="C32" s="2" t="n">
-        <v>45530</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="C32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45543</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B33" t="n">
         <v>2</v>
       </c>
-      <c r="C33" s="2" t="n">
-        <v>45537</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
+      <c r="C33" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45550</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B34" t="n">
         <v>6</v>
       </c>
-      <c r="C34" s="2" t="n">
-        <v>45544</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
+      <c r="C34" t="n">
+        <v>408</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45557</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B35" t="n">
         <v>10</v>
       </c>
-      <c r="C35" s="2" t="n">
-        <v>45551</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
+      <c r="C35" t="n">
+        <v>480</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45564</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B36" t="n">
         <v>22</v>
       </c>
-      <c r="C36" s="2" t="n">
-        <v>45558</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
+      <c r="C36" t="n">
+        <v>252</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45571</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B37" t="n">
         <v>47</v>
       </c>
-      <c r="C37" s="2" t="n">
-        <v>45565</v>
-      </c>
-      <c r="D37" t="n">
+      <c r="C37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45578</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B38" t="n">
         <v>77</v>
       </c>
-      <c r="C38" s="2" t="n">
-        <v>45572</v>
-      </c>
-      <c r="D38" t="n">
+      <c r="C38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45585</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B39" t="n">
         <v>34</v>
       </c>
-      <c r="C39" s="2" t="n">
-        <v>45579</v>
-      </c>
-      <c r="D39" t="n">
+      <c r="C39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45592</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B40" t="n">
         <v>32</v>
       </c>
-      <c r="C40" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
+      <c r="C40" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45599</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B41" t="n">
         <v>51</v>
       </c>
-      <c r="C41" s="2" t="n">
-        <v>45593</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
+      <c r="C41" t="n">
+        <v>168</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45606</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B42" t="n">
         <v>44</v>
       </c>
-      <c r="C42" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="D42" t="n">
+      <c r="C42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45613</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B43" t="n">
         <v>70</v>
       </c>
-      <c r="C43" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
+      <c r="C43" t="n">
+        <v>396</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45620</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B44" t="n">
         <v>48</v>
       </c>
-      <c r="C44" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
+      <c r="C44" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45627</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B45" t="n">
         <v>40</v>
       </c>
-      <c r="C45" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="D45" t="n">
+      <c r="C45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45634</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B46" t="n">
         <v>77</v>
       </c>
-      <c r="C46" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="D46" t="n">
+      <c r="C46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45641</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B47" t="n">
         <v>49</v>
       </c>
-      <c r="C47" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="D47" t="n">
+      <c r="C47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45648</v>
+        <v>45648.99999999999</v>
       </c>
       <c r="B48" t="n">
         <v>53</v>
       </c>
-      <c r="C48" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="D48" t="n">
+      <c r="C48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45655</v>
+        <v>45655.99999999999</v>
       </c>
       <c r="B49" t="n">
         <v>29</v>
       </c>
-      <c r="C49" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="D49" t="n">
+      <c r="C49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1172,7 +1023,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45327</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>108</v>
@@ -1183,7 +1034,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45334</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>90</v>
@@ -1194,7 +1045,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45341</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>90</v>
@@ -1205,7 +1056,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45348</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>198</v>
@@ -1216,7 +1067,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45355</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>204</v>
@@ -1227,7 +1078,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45362</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>60</v>
@@ -1238,7 +1089,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45369</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>54</v>
@@ -1249,7 +1100,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45376</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>84</v>
@@ -1260,7 +1111,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45383</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>96</v>
@@ -1271,7 +1122,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45390</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>444</v>
@@ -1282,7 +1133,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45397</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>36</v>
@@ -1293,7 +1144,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45404</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>60</v>
@@ -1304,7 +1155,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45418</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>48</v>
@@ -1315,7 +1166,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45425</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>132</v>
@@ -1326,7 +1177,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45432</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>48</v>
@@ -1337,7 +1188,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45439</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>84</v>
@@ -1348,7 +1199,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45453</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>300</v>
@@ -1359,7 +1210,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45460</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>36</v>
@@ -1370,7 +1221,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45467</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>120</v>
@@ -1381,7 +1232,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45481</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>12</v>
@@ -1392,7 +1243,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45523</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>312</v>
@@ -1403,7 +1254,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45537</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>120</v>
@@ -1414,7 +1265,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45544</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B24" t="n">
         <v>408</v>
@@ -1425,7 +1276,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45551</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B25" t="n">
         <v>480</v>
@@ -1436,7 +1287,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45558</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B26" t="n">
         <v>252</v>
@@ -1447,7 +1298,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45586</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B27" t="n">
         <v>300</v>
@@ -1458,7 +1309,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45593</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B28" t="n">
         <v>168</v>
@@ -1469,7 +1320,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45607</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B29" t="n">
         <v>396</v>
@@ -1480,7 +1331,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45614</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B30" t="n">
         <v>96</v>

--- a/po forecast comparison/B0CTNXBRJV_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0CTNXBRJV_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -835,6 +835,14 @@
       </c>
       <c r="B49" t="n">
         <v>29</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -22794,7 +22802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C233"/>
+  <dimension ref="A1:C234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23223,7 +23231,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
@@ -23234,7 +23242,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -23267,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43">
@@ -23278,7 +23286,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44">
@@ -23300,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
@@ -23311,7 +23319,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -23333,7 +23341,7 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49">
@@ -23344,7 +23352,7 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50">
@@ -23366,7 +23374,7 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
@@ -23377,7 +23385,7 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
@@ -23399,7 +23407,7 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
@@ -23410,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56">
@@ -23421,7 +23429,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
@@ -23443,7 +23451,7 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59">
@@ -23454,7 +23462,7 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60">
@@ -23487,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63">
@@ -23498,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64">
@@ -23542,7 +23550,7 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68">
@@ -23553,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69">
@@ -23564,7 +23572,7 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70">
@@ -23597,7 +23605,7 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73">
@@ -23619,7 +23627,7 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75">
@@ -23630,7 +23638,7 @@
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76">
@@ -23641,7 +23649,7 @@
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77">
@@ -23674,7 +23682,7 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80">
@@ -23685,7 +23693,7 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81">
@@ -23707,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83">
@@ -23718,7 +23726,7 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84">
@@ -23773,7 +23781,7 @@
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89">
@@ -23795,7 +23803,7 @@
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91">
@@ -24037,7 +24045,7 @@
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113">
@@ -24059,7 +24067,7 @@
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115">
@@ -24070,7 +24078,7 @@
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116">
@@ -24081,7 +24089,7 @@
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117">
@@ -24191,7 +24199,7 @@
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127">
@@ -24202,7 +24210,7 @@
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128">
@@ -24213,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129">
@@ -24224,7 +24232,7 @@
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130">
@@ -24235,7 +24243,7 @@
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="131">
@@ -24246,7 +24254,7 @@
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132">
@@ -24257,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133">
@@ -24400,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146">
@@ -24411,7 +24419,7 @@
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147">
@@ -24444,7 +24452,7 @@
         <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150">
@@ -24466,7 +24474,7 @@
         <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152">
@@ -24521,7 +24529,7 @@
         <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="157">
@@ -24532,7 +24540,7 @@
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>48</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158">
@@ -24543,7 +24551,7 @@
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="159">
@@ -24565,7 +24573,7 @@
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="161">
@@ -24576,7 +24584,7 @@
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="162">
@@ -24664,7 +24672,7 @@
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170">
@@ -24697,7 +24705,7 @@
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="173">
@@ -25214,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="C219" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="220">
@@ -25225,7 +25233,7 @@
         <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="221">
@@ -25368,6 +25376,17 @@
         <v>29</v>
       </c>
       <c r="C233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B234" t="n">
+        <v>46</v>
+      </c>
+      <c r="C234" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0CTNXBRJV_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0CTNXBRJV_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -843,6 +843,14 @@
       </c>
       <c r="B50" t="n">
         <v>46</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -22802,7 +22810,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C234"/>
+  <dimension ref="A1:C235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24452,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="150">
@@ -24474,7 +24482,7 @@
         <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152">
@@ -24529,7 +24537,7 @@
         <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="157">
@@ -24540,7 +24548,7 @@
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>6</v>
+        <v>48</v>
       </c>
     </row>
     <row r="158">
@@ -24551,7 +24559,7 @@
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="159">
@@ -24562,7 +24570,7 @@
         <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="160">
@@ -24573,7 +24581,7 @@
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>48</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161">
@@ -24584,7 +24592,7 @@
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="162">
@@ -24595,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="163">
@@ -24694,7 +24702,7 @@
         <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="172">
@@ -24705,7 +24713,7 @@
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="173">
@@ -24716,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="174">
@@ -24727,7 +24735,7 @@
         <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="175">
@@ -25387,6 +25395,17 @@
         <v>46</v>
       </c>
       <c r="C234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B235" t="n">
+        <v>36</v>
+      </c>
+      <c r="C235" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0CTNXBRJV_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0CTNXBRJV_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -851,6 +851,14 @@
       </c>
       <c r="B51" t="n">
         <v>36</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -22810,7 +22818,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C235"/>
+  <dimension ref="A1:C236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23503,7 +23511,7 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63">
@@ -23514,7 +23522,7 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64">
@@ -23679,7 +23687,7 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79">
@@ -23690,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80">
@@ -23701,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81">
@@ -23723,7 +23731,7 @@
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83">
@@ -23734,7 +23742,7 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84">
@@ -23767,7 +23775,7 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87">
@@ -23778,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88">
@@ -23789,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89">
@@ -23800,7 +23808,7 @@
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90">
@@ -23811,7 +23819,7 @@
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91">
@@ -23833,7 +23841,7 @@
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93">
@@ -23844,7 +23852,7 @@
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94">
@@ -23888,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98">
@@ -24064,7 +24072,7 @@
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114">
@@ -24075,7 +24083,7 @@
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115">
@@ -24086,7 +24094,7 @@
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116">
@@ -24108,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118">
@@ -24196,7 +24204,7 @@
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126">
@@ -24240,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130">
@@ -24460,7 +24468,7 @@
         <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="150">
@@ -24482,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152">
@@ -24493,7 +24501,7 @@
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153">
@@ -24526,7 +24534,7 @@
         <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="156">
@@ -24537,7 +24545,7 @@
         <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="157">
@@ -24548,7 +24556,7 @@
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="158">
@@ -24559,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="159">
@@ -24581,7 +24589,7 @@
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="161">
@@ -24680,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="170">
@@ -24713,7 +24721,7 @@
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="173">
@@ -24735,7 +24743,7 @@
         <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="175">
@@ -24746,7 +24754,7 @@
         <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="176">
@@ -25230,7 +25238,7 @@
         <v>0</v>
       </c>
       <c r="C219" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="220">
@@ -25241,7 +25249,7 @@
         <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="221">
@@ -25252,7 +25260,7 @@
         <v>0</v>
       </c>
       <c r="C221" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="222">
@@ -25263,7 +25271,7 @@
         <v>0</v>
       </c>
       <c r="C222" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="223">
@@ -25406,6 +25414,17 @@
         <v>36</v>
       </c>
       <c r="C235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B236" t="n">
+        <v>42</v>
+      </c>
+      <c r="C236" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0CTNXBRJV_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0CTNXBRJV_sales_po_comparison.xlsx
@@ -858,7 +858,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B52" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -25422,7 +25422,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B236" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
